--- a/ef_sdmt.xlsx
+++ b/ef_sdmt.xlsx
@@ -1006,49 +1006,49 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
         <v>23</v>
       </c>
-      <c r="K2">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>28</v>
-      </c>
       <c r="M2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1056,49 +1056,49 @@
         <v>17</v>
       </c>
       <c r="B3">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <v>55</v>
+      </c>
+      <c r="J3">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>49</v>
+      </c>
+      <c r="L3">
+        <v>51</v>
+      </c>
+      <c r="M3">
+        <v>39</v>
+      </c>
+      <c r="N3">
+        <v>58</v>
+      </c>
+      <c r="O3">
+        <v>52</v>
+      </c>
+      <c r="P3">
         <v>44</v>
-      </c>
-      <c r="C3">
-        <v>41</v>
-      </c>
-      <c r="D3">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>63</v>
-      </c>
-      <c r="G3">
-        <v>67</v>
-      </c>
-      <c r="H3">
-        <v>64</v>
-      </c>
-      <c r="I3">
-        <v>65</v>
-      </c>
-      <c r="J3">
-        <v>45</v>
-      </c>
-      <c r="K3">
-        <v>55</v>
-      </c>
-      <c r="L3">
-        <v>61</v>
-      </c>
-      <c r="M3">
-        <v>37</v>
-      </c>
-      <c r="N3">
-        <v>69</v>
-      </c>
-      <c r="O3">
-        <v>58</v>
-      </c>
-      <c r="P3">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1106,49 +1106,49 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
         <v>41</v>
       </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-      <c r="E4">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>42</v>
-      </c>
-      <c r="G4">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>45</v>
-      </c>
-      <c r="I4">
-        <v>38</v>
-      </c>
       <c r="J4">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="K4">
+        <v>35</v>
+      </c>
+      <c r="L4">
         <v>41</v>
       </c>
-      <c r="L4">
-        <v>46</v>
-      </c>
       <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4">
         <v>31</v>
       </c>
-      <c r="N4">
-        <v>29</v>
-      </c>
       <c r="O4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P4">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1156,49 +1156,49 @@
         <v>19</v>
       </c>
       <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5">
+        <v>11</v>
+      </c>
+      <c r="P5">
         <v>19</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>24</v>
-      </c>
-      <c r="G5">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="J5">
-        <v>23</v>
-      </c>
-      <c r="K5">
-        <v>24</v>
-      </c>
-      <c r="L5">
-        <v>37</v>
-      </c>
-      <c r="M5">
-        <v>30</v>
-      </c>
-      <c r="N5">
-        <v>29</v>
-      </c>
-      <c r="O5">
-        <v>8</v>
-      </c>
-      <c r="P5">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1206,49 +1206,49 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
       <c r="G6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1256,49 +1256,49 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
         <v>36</v>
       </c>
-      <c r="D7">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>45</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>23</v>
+      </c>
+      <c r="N7">
+        <v>46</v>
+      </c>
+      <c r="O7">
         <v>42</v>
       </c>
-      <c r="G7">
-        <v>46</v>
-      </c>
-      <c r="H7">
-        <v>37</v>
-      </c>
-      <c r="I7">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>27</v>
-      </c>
-      <c r="K7">
-        <v>41</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>32</v>
-      </c>
-      <c r="N7">
-        <v>44</v>
-      </c>
-      <c r="O7">
-        <v>48</v>
-      </c>
       <c r="P7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1306,49 +1306,49 @@
         <v>22</v>
       </c>
       <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>35</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>39</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <v>31</v>
+      </c>
+      <c r="O8">
         <v>30</v>
       </c>
-      <c r="C8">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>44</v>
-      </c>
-      <c r="E8">
+      <c r="P8">
         <v>33</v>
-      </c>
-      <c r="F8">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>41</v>
-      </c>
-      <c r="H8">
-        <v>21</v>
-      </c>
-      <c r="I8">
-        <v>40</v>
-      </c>
-      <c r="J8">
-        <v>35</v>
-      </c>
-      <c r="K8">
-        <v>45</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>39</v>
-      </c>
-      <c r="N8">
-        <v>28</v>
-      </c>
-      <c r="O8">
-        <v>40</v>
-      </c>
-      <c r="P8">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1356,49 +1356,49 @@
         <v>23</v>
       </c>
       <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>47</v>
+      </c>
+      <c r="J9">
         <v>40</v>
       </c>
-      <c r="C9">
-        <v>45</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>41</v>
+      </c>
+      <c r="M9">
+        <v>29</v>
+      </c>
+      <c r="N9">
         <v>33</v>
       </c>
-      <c r="F9">
-        <v>28</v>
-      </c>
-      <c r="G9">
+      <c r="O9">
         <v>39</v>
       </c>
-      <c r="H9">
-        <v>35</v>
-      </c>
-      <c r="I9">
-        <v>45</v>
-      </c>
-      <c r="J9">
-        <v>37</v>
-      </c>
-      <c r="K9">
-        <v>43</v>
-      </c>
-      <c r="L9">
-        <v>39</v>
-      </c>
-      <c r="M9">
-        <v>35</v>
-      </c>
-      <c r="N9">
-        <v>43</v>
-      </c>
-      <c r="O9">
-        <v>48</v>
-      </c>
       <c r="P9">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1406,49 +1406,49 @@
         <v>24</v>
       </c>
       <c r="B10">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>26</v>
+      </c>
+      <c r="L10">
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>21</v>
+      </c>
+      <c r="O10">
         <v>20</v>
       </c>
-      <c r="C10">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <v>22</v>
-      </c>
-      <c r="J10">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>31</v>
-      </c>
-      <c r="L10">
-        <v>37</v>
-      </c>
-      <c r="M10">
-        <v>27</v>
-      </c>
-      <c r="N10">
-        <v>26</v>
-      </c>
-      <c r="O10">
-        <v>25</v>
-      </c>
       <c r="P10">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1456,49 +1456,49 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>33</v>
+      </c>
+      <c r="J11">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>26</v>
+      </c>
+      <c r="L11">
+        <v>29</v>
+      </c>
+      <c r="M11">
         <v>20</v>
       </c>
-      <c r="G11">
-        <v>31</v>
-      </c>
-      <c r="H11">
-        <v>27</v>
-      </c>
-      <c r="I11">
-        <v>30</v>
-      </c>
-      <c r="J11">
-        <v>38</v>
-      </c>
-      <c r="K11">
-        <v>31</v>
-      </c>
-      <c r="L11">
-        <v>38</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
       <c r="N11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O11">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P11">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1506,49 +1506,49 @@
         <v>26</v>
       </c>
       <c r="B12">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="D12">
         <v>45</v>
       </c>
-      <c r="C12">
+      <c r="E12">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>29</v>
+      </c>
+      <c r="L12">
         <v>28</v>
       </c>
-      <c r="D12">
-        <v>51</v>
-      </c>
-      <c r="E12">
+      <c r="M12">
+        <v>36</v>
+      </c>
+      <c r="N12">
         <v>33</v>
       </c>
-      <c r="F12">
-        <v>22</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <v>14</v>
-      </c>
-      <c r="I12">
-        <v>19</v>
-      </c>
-      <c r="J12">
-        <v>31</v>
-      </c>
-      <c r="K12">
-        <v>26</v>
-      </c>
-      <c r="L12">
-        <v>33</v>
-      </c>
-      <c r="M12">
-        <v>33</v>
-      </c>
-      <c r="N12">
-        <v>30</v>
-      </c>
       <c r="O12">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P12">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1556,49 +1556,49 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>51</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>48</v>
+      </c>
+      <c r="I13">
         <v>36</v>
       </c>
-      <c r="E13">
-        <v>38</v>
-      </c>
-      <c r="F13">
-        <v>57</v>
-      </c>
-      <c r="G13">
-        <v>39</v>
-      </c>
-      <c r="H13">
-        <v>54</v>
-      </c>
-      <c r="I13">
-        <v>45</v>
-      </c>
       <c r="J13">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N13">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O13">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P13">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1606,49 +1606,49 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I14">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J14">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L14">
+        <v>45</v>
+      </c>
+      <c r="M14">
         <v>47</v>
       </c>
-      <c r="M14">
-        <v>49</v>
-      </c>
       <c r="N14">
+        <v>42</v>
+      </c>
+      <c r="O14">
         <v>20</v>
       </c>
-      <c r="O14">
-        <v>29</v>
-      </c>
       <c r="P14">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1656,49 +1656,49 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>59</v>
+      </c>
+      <c r="I15">
         <v>54</v>
       </c>
-      <c r="D15">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>38</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>49</v>
-      </c>
-      <c r="H15">
-        <v>61</v>
-      </c>
-      <c r="I15">
-        <v>56</v>
-      </c>
       <c r="J15">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N15">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O15">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="P15">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1706,49 +1706,49 @@
         <v>30</v>
       </c>
       <c r="B16">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>33</v>
+      </c>
+      <c r="H16">
         <v>49</v>
       </c>
-      <c r="C16">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
-      <c r="E16">
-        <v>65</v>
-      </c>
-      <c r="F16">
-        <v>45</v>
-      </c>
-      <c r="G16">
-        <v>43</v>
-      </c>
-      <c r="H16">
-        <v>51</v>
-      </c>
       <c r="I16">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J16">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M16">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N16">
+        <v>60</v>
+      </c>
+      <c r="O16">
+        <v>30</v>
+      </c>
+      <c r="P16">
         <v>38</v>
-      </c>
-      <c r="O16">
-        <v>39</v>
-      </c>
-      <c r="P16">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1756,49 +1756,49 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E17">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>52</v>
+      </c>
+      <c r="G17">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>35</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>54</v>
+      </c>
+      <c r="K17">
         <v>29</v>
       </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17">
-        <v>27</v>
-      </c>
-      <c r="H17">
-        <v>36</v>
-      </c>
-      <c r="I17">
-        <v>34</v>
-      </c>
-      <c r="J17">
-        <v>32</v>
-      </c>
-      <c r="K17">
-        <v>30</v>
-      </c>
       <c r="L17">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N17">
+        <v>35</v>
+      </c>
+      <c r="O17">
+        <v>38</v>
+      </c>
+      <c r="P17">
         <v>37</v>
-      </c>
-      <c r="O17">
-        <v>40</v>
-      </c>
-      <c r="P17">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1806,49 +1806,49 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G18">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>32</v>
+      </c>
+      <c r="K18">
         <v>41</v>
       </c>
-      <c r="J18">
-        <v>33</v>
-      </c>
-      <c r="K18">
-        <v>42</v>
-      </c>
       <c r="L18">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="N18">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O18">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P18">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1856,49 +1856,49 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D19">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>45</v>
+      </c>
+      <c r="G19">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>28</v>
+      </c>
+      <c r="I19">
+        <v>55</v>
+      </c>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>43</v>
+      </c>
+      <c r="L19">
+        <v>58</v>
+      </c>
+      <c r="M19">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>64</v>
+      </c>
+      <c r="O19">
+        <v>55</v>
+      </c>
+      <c r="P19">
         <v>54</v>
-      </c>
-      <c r="E19">
-        <v>41</v>
-      </c>
-      <c r="F19">
-        <v>47</v>
-      </c>
-      <c r="G19">
-        <v>37</v>
-      </c>
-      <c r="H19">
-        <v>37</v>
-      </c>
-      <c r="I19">
-        <v>33</v>
-      </c>
-      <c r="J19">
-        <v>36</v>
-      </c>
-      <c r="K19">
-        <v>44</v>
-      </c>
-      <c r="L19">
-        <v>60</v>
-      </c>
-      <c r="M19">
-        <v>38</v>
-      </c>
-      <c r="N19">
-        <v>42</v>
-      </c>
-      <c r="O19">
-        <v>33</v>
-      </c>
-      <c r="P19">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1906,49 +1906,49 @@
         <v>34</v>
       </c>
       <c r="B20">
+        <v>38</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>52</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>46</v>
+      </c>
+      <c r="I20">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>46</v>
+      </c>
+      <c r="K20">
         <v>48</v>
       </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>19</v>
-      </c>
-      <c r="F20">
-        <v>54</v>
-      </c>
-      <c r="G20">
-        <v>44</v>
-      </c>
-      <c r="H20">
+      <c r="L20">
+        <v>45</v>
+      </c>
+      <c r="M20">
+        <v>36</v>
+      </c>
+      <c r="N20">
         <v>48</v>
       </c>
-      <c r="I20">
-        <v>42</v>
-      </c>
-      <c r="J20">
-        <v>56</v>
-      </c>
-      <c r="K20">
-        <v>26</v>
-      </c>
-      <c r="L20">
-        <v>23</v>
-      </c>
-      <c r="M20">
-        <v>45</v>
-      </c>
-      <c r="N20">
-        <v>50</v>
-      </c>
       <c r="O20">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P20">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1956,49 +1956,49 @@
         <v>35</v>
       </c>
       <c r="B21">
+        <v>44</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>33</v>
+      </c>
+      <c r="F21">
+        <v>37</v>
+      </c>
+      <c r="G21">
+        <v>36</v>
+      </c>
+      <c r="H21">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>42</v>
+      </c>
+      <c r="K21">
         <v>46</v>
       </c>
-      <c r="C21">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>40</v>
+      </c>
+      <c r="O21">
+        <v>8</v>
+      </c>
+      <c r="P21">
         <v>38</v>
-      </c>
-      <c r="G21">
-        <v>38</v>
-      </c>
-      <c r="H21">
-        <v>18</v>
-      </c>
-      <c r="I21">
-        <v>17</v>
-      </c>
-      <c r="J21">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>23</v>
-      </c>
-      <c r="L21">
-        <v>34</v>
-      </c>
-      <c r="M21">
-        <v>29</v>
-      </c>
-      <c r="N21">
-        <v>17</v>
-      </c>
-      <c r="O21">
-        <v>17</v>
-      </c>
-      <c r="P21">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -2006,49 +2006,49 @@
         <v>36</v>
       </c>
       <c r="B22">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>51</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>34</v>
+      </c>
+      <c r="H22">
         <v>24</v>
       </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-      <c r="E22">
-        <v>28</v>
-      </c>
-      <c r="F22">
-        <v>49</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <v>33</v>
-      </c>
       <c r="I22">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J22">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N22">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="O22">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P22">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2056,49 +2056,49 @@
         <v>37</v>
       </c>
       <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>37</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>38</v>
+      </c>
+      <c r="J23">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>41</v>
+      </c>
+      <c r="L23">
+        <v>31</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
         <v>35</v>
       </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>32</v>
-      </c>
-      <c r="F23">
-        <v>38</v>
-      </c>
-      <c r="G23">
-        <v>39</v>
-      </c>
-      <c r="H23">
-        <v>30</v>
-      </c>
-      <c r="I23">
-        <v>15</v>
-      </c>
-      <c r="J23">
-        <v>20</v>
-      </c>
-      <c r="K23">
-        <v>43</v>
-      </c>
-      <c r="L23">
-        <v>40</v>
-      </c>
-      <c r="M23">
-        <v>21</v>
-      </c>
-      <c r="N23">
-        <v>12</v>
-      </c>
       <c r="O23">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="P23">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2106,49 +2106,49 @@
         <v>38</v>
       </c>
       <c r="B24">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>47</v>
+      </c>
+      <c r="H24">
+        <v>41</v>
+      </c>
+      <c r="I24">
+        <v>30</v>
+      </c>
+      <c r="J24">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>43</v>
+      </c>
+      <c r="L24">
+        <v>45</v>
+      </c>
+      <c r="M24">
+        <v>24</v>
+      </c>
+      <c r="N24">
         <v>36</v>
       </c>
-      <c r="C24">
-        <v>27</v>
-      </c>
-      <c r="D24">
-        <v>54</v>
-      </c>
-      <c r="E24">
-        <v>35</v>
-      </c>
-      <c r="F24">
-        <v>33</v>
-      </c>
-      <c r="G24">
-        <v>24</v>
-      </c>
-      <c r="H24">
-        <v>19</v>
-      </c>
-      <c r="I24">
-        <v>39</v>
-      </c>
-      <c r="J24">
-        <v>42</v>
-      </c>
-      <c r="K24">
-        <v>45</v>
-      </c>
-      <c r="L24">
-        <v>23</v>
-      </c>
-      <c r="M24">
-        <v>33</v>
-      </c>
-      <c r="N24">
-        <v>45</v>
-      </c>
       <c r="O24">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="P24">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2156,49 +2156,49 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F25">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G25">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I25">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J25">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K25">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N25">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O25">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="P25">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
